--- a/課題設計書.xlsx
+++ b/課題設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G018C1233\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G018C1233\Documents\practiceMusicPlayer\PracticeCoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,18 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -537,6 +525,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,13 +1458,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1473,8 +1473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="742949"/>
-          <a:ext cx="2505075" cy="3267075"/>
+          <a:off x="8953500" y="742948"/>
+          <a:ext cx="2505075" cy="5295901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,7 +1679,67 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルパス</a:t>
+            <a:t>メディア名配列</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> - UI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コントロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>選曲番号保持変数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>再生状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> - WindowsMediaPlayer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>インスタンス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>再生中曲経過時間保持変数</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1726,6 +1786,74 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>音楽ファイル名取得</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
@@ -1737,7 +1865,45 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>音楽再生制御関数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>音楽再生</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>音楽一時停止</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
@@ -1826,6 +1992,45 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>曲選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>選曲ファイル名の表示</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -2381,136 +2586,141 @@
       <c r="B24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="2:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <v>1</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="2:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>3</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>4</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="2:15" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F25:O25"/>
@@ -2518,11 +2728,6 @@
     <mergeCell ref="F27:O27"/>
     <mergeCell ref="F28:O28"/>
     <mergeCell ref="F29:O29"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2534,8 +2739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
